--- a/data/drbc-deck-1.xlsx
+++ b/data/drbc-deck-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/shiny-flash-cards/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE76457E-AA22-654E-B4A5-7D36E00F3215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AAABE-8258-B74B-8B0F-F603FB3DF998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="209">
   <si>
     <t>Question</t>
   </si>
@@ -219,6 +219,447 @@
   </si>
   <si>
     <t>Federal Government</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>CWA and Water Quality</t>
+  </si>
+  <si>
+    <t>Eastern Water Law</t>
+  </si>
+  <si>
+    <t>Riparian Rights</t>
+  </si>
+  <si>
+    <t>Humid, water rich</t>
+  </si>
+  <si>
+    <t>Mills, domestic use</t>
+  </si>
+  <si>
+    <t>Attached to Reparian Property</t>
+  </si>
+  <si>
+    <t>Two Derivations: "Reasonable Use" and "Equitable Apportionment"</t>
+  </si>
+  <si>
+    <t>Water Law</t>
+  </si>
+  <si>
+    <t>Western Water Law</t>
+  </si>
+  <si>
+    <t>Prior Apportionment - No reparian rights</t>
+  </si>
+  <si>
+    <t>Large Water Users, Low flows</t>
+  </si>
+  <si>
+    <t>"First in Time, First in Right" - vested right, no riparian connection</t>
+  </si>
+  <si>
+    <t>Senior Appropriators and Junior Appropriators</t>
+  </si>
+  <si>
+    <t>Works for normal or larger flows, not droughts</t>
+  </si>
+  <si>
+    <t>Water directed to human uses and economic gain, not environmental - treated as a commodity</t>
+  </si>
+  <si>
+    <t>Does not encourage conservation</t>
+  </si>
+  <si>
+    <t>Mix of East/West Law (Mixture)</t>
+  </si>
+  <si>
+    <t>Water Allocation Permitting: State approval of water withdrawal and senior appropriator can now transfer water rights</t>
+  </si>
+  <si>
+    <t>Ecological Flow Needs</t>
+  </si>
+  <si>
+    <t>Demand Reduction (Conservation Measures)</t>
+  </si>
+  <si>
+    <t>Why Plan?</t>
+  </si>
+  <si>
+    <t>A logical and orderly way to think about the future</t>
+  </si>
+  <si>
+    <t>Today's Decisions have future consequences, so we need to plan before we manage and implement</t>
+  </si>
+  <si>
+    <t>2 approaches to nutrient management</t>
+  </si>
+  <si>
+    <t>Special Protection Waters (non-tidal zone) and Aquatic Life Use/Eutrophication Model (Tidal zone)</t>
+  </si>
+  <si>
+    <t>Special Protection Waters (SPW)</t>
+  </si>
+  <si>
+    <t>Non-tidal Delaware River</t>
+  </si>
+  <si>
+    <t>In place and implemented for over a decade</t>
+  </si>
+  <si>
+    <t>Anti-degradation program</t>
+  </si>
+  <si>
+    <t>Aquatic Life Use/Eutrophication Model</t>
+  </si>
+  <si>
+    <t>Delaware Estuary</t>
+  </si>
+  <si>
+    <t>Early Stages of development</t>
+  </si>
+  <si>
+    <t>Ultimate concerned with dissolved oxygen</t>
+  </si>
+  <si>
+    <t>It is the policy of the Commission that there be no measurable change in existing water quality except towards natural conditions in waters considered by the Commission to have exceptionally high scenic, recreational, ecological, and/or water supply values.</t>
+  </si>
+  <si>
+    <t>Non-point source requirements adopted in 1994</t>
+  </si>
+  <si>
+    <t>SPW Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed to preserve existing high water quality </t>
+  </si>
+  <si>
+    <t>New or expanding waste water treatment plants, significant alterations or additions must demonstrate that no measurable change to existing water quality</t>
+  </si>
+  <si>
+    <t>Analysis considers other WWTPs &amp; loads in subwatershed</t>
+  </si>
+  <si>
+    <t>Manage water quality before problems occur</t>
+  </si>
+  <si>
+    <t>Coordinate with states - effluent limits in Docket and NPDES permit</t>
+  </si>
+  <si>
+    <t>Cumulative analysis with Water Quality Models</t>
+  </si>
+  <si>
+    <t>Neversink River Watershed - ~20 dischargers</t>
+  </si>
+  <si>
+    <t>Brodhead Creek Watershed ~30 dischargers</t>
+  </si>
+  <si>
+    <t>Lehigh River Watershed ~65 dischargers</t>
+  </si>
+  <si>
+    <t>Lower Delaware River ~100 dischargers</t>
+  </si>
+  <si>
+    <t>Nutrient Management</t>
+  </si>
+  <si>
+    <t>Different Types of Plans</t>
+  </si>
+  <si>
+    <t>Specific Purpose Strategy: approach to solve a specific problem</t>
+  </si>
+  <si>
+    <t>Township Conprehensive Plan: deciding where different land uses and roads are located</t>
+  </si>
+  <si>
+    <t>State Water Plan: Are our water resources sustainable in the future</t>
+  </si>
+  <si>
+    <t>Environmental Impact Assessment</t>
+  </si>
+  <si>
+    <t>Envionmental Impact Assessment Steps</t>
+  </si>
+  <si>
+    <t>Scoping - multiple agencies</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>Assessment of alternatives</t>
+  </si>
+  <si>
+    <t>Cumulative Impact</t>
+  </si>
+  <si>
+    <t>Community Involvement</t>
+  </si>
+  <si>
+    <t>Selection of the best alternative</t>
+  </si>
+  <si>
+    <t>IWRM</t>
+  </si>
+  <si>
+    <t>Integrated Water Resources Management</t>
+  </si>
+  <si>
+    <t>Interrelationships between environmental, socioeconomic and governance systems as related to water resources</t>
+  </si>
+  <si>
+    <t>Designing a Planning Process</t>
+  </si>
+  <si>
+    <t>Defining the goal</t>
+  </si>
+  <si>
+    <t>Determining who should be involved</t>
+  </si>
+  <si>
+    <t>Determining the type of information needed</t>
+  </si>
+  <si>
+    <t>Should internal groups write the plan or is there time to engage external stakeholders</t>
+  </si>
+  <si>
+    <t>Determining who decides the priorotes</t>
+  </si>
+  <si>
+    <t>Water Characteristics</t>
+  </si>
+  <si>
+    <t>High Capacity to absorb and store heat</t>
+  </si>
+  <si>
+    <t>universal solvent</t>
+  </si>
+  <si>
+    <t>High surface tension</t>
+  </si>
+  <si>
+    <t>Only compound whose solid form is lighter than its liquid form</t>
+  </si>
+  <si>
+    <t>Permits sunlight penetration into water, allowing photosynthetic organisms to live below the surface</t>
+  </si>
+  <si>
+    <t>Confined Aquifers</t>
+  </si>
+  <si>
+    <t>Completely bounded above and below by aquiclude</t>
+  </si>
+  <si>
+    <t>Unconfined Aquifers</t>
+  </si>
+  <si>
+    <t>Not bounded above by aquiclude</t>
+  </si>
+  <si>
+    <t>Hydrological Cycle</t>
+  </si>
+  <si>
+    <t>Water cycles from the atmosphere, to land, to oceans, and back to atmosphere</t>
+  </si>
+  <si>
+    <t>Residence time varies from a few days to thousand of years</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>What percentage of land area of the Continental US does the DRB cover?</t>
+  </si>
+  <si>
+    <t>What percentage of national water supply comes from the DRB</t>
+  </si>
+  <si>
+    <t>Water that is withdrawn from the basin and is not returned</t>
+  </si>
+  <si>
+    <t>Non-consumptive use</t>
+  </si>
+  <si>
+    <t>Water that is taken from the basin and is then returned</t>
+  </si>
+  <si>
+    <t>Consumptive Use</t>
+  </si>
+  <si>
+    <t>Water Use</t>
+  </si>
+  <si>
+    <t>Oliver Wendell Holmes</t>
+  </si>
+  <si>
+    <t>"Water is more than an amenity, it is a treasure"</t>
+  </si>
+  <si>
+    <t>1954 Supreme Court Decisions</t>
+  </si>
+  <si>
+    <t>Parties to decree: DE, NJ, NY, PA, NYC</t>
+  </si>
+  <si>
+    <t>River Master appointed to administer the decree</t>
+  </si>
+  <si>
+    <t>Allocated approximately 70% (800 MGD) of the average annual flow in the upper delaware watershed to NYC</t>
+  </si>
+  <si>
+    <t>Upper Delaware Basin Storage</t>
+  </si>
+  <si>
+    <t>Cannonsville - 96bg</t>
+  </si>
+  <si>
+    <t>Pepacton - 140bg</t>
+  </si>
+  <si>
+    <t>Neversink - 35bg</t>
+  </si>
+  <si>
+    <t>Lake Wallenpaupack Hydro</t>
+  </si>
+  <si>
+    <t>Mongaup System Hydro</t>
+  </si>
+  <si>
+    <t>Salt Line</t>
+  </si>
+  <si>
+    <t>7-day average of 250 mg/L of Chloride</t>
+  </si>
+  <si>
+    <t>Normal - RM77</t>
+  </si>
+  <si>
+    <t>Maximum - RM 102 (1960 - Drought of Record)</t>
+  </si>
+  <si>
+    <t>Water Supply Intakes are at RM 110 for Philly and Camden</t>
+  </si>
+  <si>
+    <t>How Can Water Use be managed when there is not enough to go around?</t>
+  </si>
+  <si>
+    <t>Equitable Allocation through DRBC</t>
+  </si>
+  <si>
+    <t>1975 DRBC Decision</t>
+  </si>
+  <si>
+    <t>Delay Tocks Island Dam until after 2000. Tocks since deauthorized by the Corps of Engineers</t>
+  </si>
+  <si>
+    <t>Led to complete re-evaluation of DRBC Comprehensive Plan. Known as "Level B" report. Stressed conservation and less structural approach</t>
+  </si>
+  <si>
+    <t>Led decree parties to develop "Good Faith" aggreement</t>
+  </si>
+  <si>
+    <t>Good Faith Agreement</t>
+  </si>
+  <si>
+    <t>Interstate water management recommendations of the Parties to the U.S Supreeme Court Decree of 1954 to the Delaware River Basin Commission</t>
+  </si>
+  <si>
+    <t>14 recommendations which have driven interstate water quantity management during the last 20 years</t>
+  </si>
+  <si>
+    <t>The recommendations are the basis for the DRBC drought management plan, fisheries protection in the upper Delaware tailwaters, and state direction in drought management</t>
+  </si>
+  <si>
+    <t>Adopted Good Faith Recommendations</t>
+  </si>
+  <si>
+    <t>No 1 - Current salinity standard in the Delaware Estuary</t>
+  </si>
+  <si>
+    <t>No 2 - 1960's drought as the design basis for dependable water supply</t>
+  </si>
+  <si>
+    <t>No 3 - Schedule of diversions and flow targets, operating rule curves</t>
+  </si>
+  <si>
+    <t>No 4 - Recommendation for a lower basin drought plan</t>
+  </si>
+  <si>
+    <t>No 5 - Merrill Creek Reservoir</t>
+  </si>
+  <si>
+    <t>No 7 - Camden metro area water supply study</t>
+  </si>
+  <si>
+    <t>Lower Basin Storage</t>
+  </si>
+  <si>
+    <t>FE Walter Flood Control</t>
+  </si>
+  <si>
+    <t>Beltzvile ~13bg</t>
+  </si>
+  <si>
+    <t>Merrill Creek ~15bg</t>
+  </si>
+  <si>
+    <t>Nockamixon ~13bg</t>
+  </si>
+  <si>
+    <t>Blue Marge ~6.5bg</t>
+  </si>
+  <si>
+    <t>No 9 - Tocks Island held in reserve (Tocks has be de-authorized_</t>
+  </si>
+  <si>
+    <t>No 10 - NYC storage as the basis for declaration for drought emergency</t>
+  </si>
+  <si>
+    <t>No 11, 12 - State drought management plans</t>
+  </si>
+  <si>
+    <t>No 14 - NYC Reservoir tailwater releases and thermal stress bank</t>
+  </si>
+  <si>
+    <t>Unadopted Good Faith Recommendation</t>
+  </si>
+  <si>
+    <t>No5 - F.E. Walter and Prompton Reservoir modifications</t>
+  </si>
+  <si>
+    <t>No 6 - Enlargement of Cannonsville Reservoir</t>
+  </si>
+  <si>
+    <t>No 8 - Pumping glacial alluvium for flow augmentation</t>
+  </si>
+  <si>
+    <t>No 13 - Depletive water use budget and allocation program</t>
+  </si>
+  <si>
+    <t>DRBC Operating Plans</t>
+  </si>
+  <si>
+    <t>NYC Delaware Basin Reservoirs drive the Basin wide Operating Plan: Cannonsville, Pepacton, Neversink</t>
+  </si>
+  <si>
+    <t>Two Corps of Engineers Reservoirs drive Lower Basin Operating Plan: Beltsville and Blue Marsh</t>
+  </si>
+  <si>
+    <t>Adaptive Management</t>
+  </si>
+  <si>
+    <t>Supreme Court set a strict water allocation</t>
+  </si>
+  <si>
+    <t>"A line in the sand" BUT it did not work in extreme conditions</t>
+  </si>
+  <si>
+    <t>Parties were able to work out a new allocation scheme based on equalized hurt</t>
+  </si>
+  <si>
+    <t>Equitable Allocation</t>
   </si>
 </sst>
 </file>
@@ -254,8 +695,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,364 +1016,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9D4D1-F6A9-C940-A3C3-6AD155BF6F59}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="112.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C36" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C39" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/data/drbc-deck-1.xlsx
+++ b/data/drbc-deck-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/shiny-flash-cards/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AAABE-8258-B74B-8B0F-F603FB3DF998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E46D0C-2E6C-8A4B-A49E-A1EE86A1B4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="218">
   <si>
     <t>Question</t>
   </si>
@@ -660,6 +660,33 @@
   </si>
   <si>
     <t>Equitable Allocation</t>
+  </si>
+  <si>
+    <t>FFMP</t>
+  </si>
+  <si>
+    <t>Flexible Flow Management Plan</t>
+  </si>
+  <si>
+    <t>Address: Water Supply, Instream Flow Needs, and Spill Migration</t>
+  </si>
+  <si>
+    <t>Based on Reservoir Releases</t>
+  </si>
+  <si>
+    <t>Renewal of FFMP requires unanimous vote from PA, NJ, NY, DE, and NYC</t>
+  </si>
+  <si>
+    <t>Flow Management</t>
+  </si>
+  <si>
+    <t>Non-drought Flow Targets</t>
+  </si>
+  <si>
+    <t>Montague - 1750 cfs (1130 MGD)</t>
+  </si>
+  <si>
+    <t>Trenton - 3000 cfs (1940 MGD)</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9D4D1-F6A9-C940-A3C3-6AD155BF6F59}">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="112.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2235,6 +2262,9 @@
       <c r="B110" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="C110" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -2243,6 +2273,9 @@
       <c r="B111" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="C111" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
@@ -2251,341 +2284,530 @@
       <c r="B112" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>154</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C113" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="C124" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>171</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C125" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C130" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C131" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C132" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C134" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C135" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C138" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C139" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C141" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C142" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C145" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C146" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C147" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C148" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C149" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C150" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="C153" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>208</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/drbc-deck-1.xlsx
+++ b/data/drbc-deck-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/shiny-flash-cards/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E46D0C-2E6C-8A4B-A49E-A1EE86A1B4FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E910DEA-EAFB-C34E-8B0A-B3D8197BF6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
   <si>
     <t>Question</t>
   </si>
@@ -687,16 +687,271 @@
   </si>
   <si>
     <t>Trenton - 3000 cfs (1940 MGD)</t>
+  </si>
+  <si>
+    <t>Delaware River Watershed Initiative</t>
+  </si>
+  <si>
+    <t>A collborative Effort to protect and restore the Delaware River and its tributaries</t>
+  </si>
+  <si>
+    <t>Place-based actions</t>
+  </si>
+  <si>
+    <t>Focused on-the-ground activities that produce measurable results</t>
+  </si>
+  <si>
+    <t>Funding for Collaboration</t>
+  </si>
+  <si>
+    <t>Funding is provided to teams of organizations to collaborate on impactful activities</t>
+  </si>
+  <si>
+    <t>Informed by science</t>
+  </si>
+  <si>
+    <t>All activities are based on sound science that is provided by leading-edge researchers</t>
+  </si>
+  <si>
+    <t>Boundaries Drive Focus</t>
+  </si>
+  <si>
+    <t>All place-based actions are tailored to local and environmental conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaboration with over 60 nonprofits </t>
+  </si>
+  <si>
+    <t>Water Quality monitored at 500 stations</t>
+  </si>
+  <si>
+    <t>Over 19K acres of land protected</t>
+  </si>
+  <si>
+    <t>Over 8331 acres of land restored</t>
+  </si>
+  <si>
+    <t>$100 Million pledged by the William Penn Foundation</t>
+  </si>
+  <si>
+    <t>$73 million in matching grants and private donations attracted</t>
+  </si>
+  <si>
+    <t>Goal of DRWI</t>
+  </si>
+  <si>
+    <t>Watersheds that provide high quality water in sufficient quantity to support healthy natural and human communities</t>
+  </si>
+  <si>
+    <t>DRWI Identified Stressors</t>
+  </si>
+  <si>
+    <t>Forest fragmentation and loss</t>
+  </si>
+  <si>
+    <t>Agriculture run-off</t>
+  </si>
+  <si>
+    <t>Stormwater</t>
+  </si>
+  <si>
+    <t>Aquifer Depletion</t>
+  </si>
+  <si>
+    <t>Evaluated Stressors on 400 HUC/12 watersheds</t>
+  </si>
+  <si>
+    <t>Prioritized watersheds for conservation or restoration and identified 8 subwatersheds where high-priority areas were clustered</t>
+  </si>
+  <si>
+    <t>DRWI Stressor Response</t>
+  </si>
+  <si>
+    <t>DRWI Unique Features</t>
+  </si>
+  <si>
+    <t>Strong Scientific Backbone</t>
+  </si>
+  <si>
+    <t>Working through "Grasstops" Organizations</t>
+  </si>
+  <si>
+    <t>Target Programs and Funding (Restoration and Preservation)</t>
+  </si>
+  <si>
+    <t>Continual Evaluation of Program value and tranferability (lessons learned)</t>
+  </si>
+  <si>
+    <t>Feasibility for Investment in Watersheds</t>
+  </si>
+  <si>
+    <t>Potential for significant impact</t>
+  </si>
+  <si>
+    <t>Urgency to act</t>
+  </si>
+  <si>
+    <t>Organization capacity</t>
+  </si>
+  <si>
+    <t>Cost efficiency</t>
+  </si>
+  <si>
+    <t>Ability to measure impact</t>
+  </si>
+  <si>
+    <t>DWRI Phase 1 -&gt; Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 1 - average area 97 sq. km</t>
+  </si>
+  <si>
+    <t>Phase 2 - average area 41.8 sq. km</t>
+  </si>
+  <si>
+    <t>Phase 2 focus areas designed around strict watershed boundaries</t>
+  </si>
+  <si>
+    <t>Average reduction of 69%</t>
+  </si>
+  <si>
+    <t>Building DRWI Phase 2</t>
+  </si>
+  <si>
+    <t>Moving from opportunistic to more data-derived decisions</t>
+  </si>
+  <si>
+    <t>Stronger scientific basis for focus area and site selection</t>
+  </si>
+  <si>
+    <t>Added accountability - progress toward goal</t>
+  </si>
+  <si>
+    <t>Metrics - performance, outcome, policy, and outreach</t>
+  </si>
+  <si>
+    <t>Team building - outreach</t>
+  </si>
+  <si>
+    <t>Working with watershed-wide advocacy orgs</t>
+  </si>
+  <si>
+    <t>Designed to be 6 year effor (2018-2024)</t>
+  </si>
+  <si>
+    <t>DRWI Complimentary Strategies</t>
+  </si>
+  <si>
+    <t>Municipal ordinances</t>
+  </si>
+  <si>
+    <t>Tech assist to municipalities</t>
+  </si>
+  <si>
+    <t>County open space bond issues</t>
+  </si>
+  <si>
+    <t>Building local support for environmental actions</t>
+  </si>
+  <si>
+    <t>Educational programs - students, adults, teachers</t>
+  </si>
+  <si>
+    <t>Using champions to influence their neighbors</t>
+  </si>
+  <si>
+    <t>DRWI Underlying Questions</t>
+  </si>
+  <si>
+    <t>How are in-stream ecosystems responding to on-the-ground actions</t>
+  </si>
+  <si>
+    <t>Which indicators best respond to current stressors and conditions, as well as changes in water (and ecosystem) quality over time</t>
+  </si>
+  <si>
+    <t>How can monitoring results inform the DRWI and similar work in the future?</t>
+  </si>
+  <si>
+    <t>DRWI Data collected</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Macroinvertebrate</t>
+  </si>
+  <si>
+    <t>Diatom</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>Improvements in Phase 2 Monitoring</t>
+  </si>
+  <si>
+    <t>More citizen monitoring with Tier 2 methodology</t>
+  </si>
+  <si>
+    <t>Mostly chemistry and macroinvertebrates</t>
+  </si>
+  <si>
+    <t>More targeted - project sites and focus areas</t>
+  </si>
+  <si>
+    <t>Outcome monitoring committee - each cluster</t>
+  </si>
+  <si>
+    <t>Modeling tools for selection of sites - Phase 2</t>
+  </si>
+  <si>
+    <t>SRAT - one sq. mile watersheds, land use impacts/direct runoff/upstream influence. Used to prioritize watersheds for action</t>
+  </si>
+  <si>
+    <t>WikiWatersheds - user friendly, focus on specific watersheds, input different alternatives for site restoration</t>
+  </si>
+  <si>
+    <t>Mapping &amp; Tools for DRB - Phase 2</t>
+  </si>
+  <si>
+    <t>UVM - NLCD (USGS National Land Cover Dataset) plus LIDAR</t>
+  </si>
+  <si>
+    <t>Shippensburg University &amp; USGS - sleuth model and local input and land use change Forecasts</t>
+  </si>
+  <si>
+    <t>Stream Reach Assessment Tool</t>
+  </si>
+  <si>
+    <t>Models nutrient yields and concentrations throughout the DRB</t>
+  </si>
+  <si>
+    <t>Created with data from multiple sources</t>
+  </si>
+  <si>
+    <t>Models at reach-scale - mean annual loads &amp; in-stream concentrations and tracking ability to produce clean and abundant water</t>
+  </si>
+  <si>
+    <t>DRWI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1043,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9D4D1-F6A9-C940-A3C3-6AD155BF6F59}">
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="112.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2801,6 +3056,9 @@
       <c r="B159" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
@@ -2809,8 +3067,713 @@
       <c r="B160" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="C160" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/drbc-deck-1.xlsx
+++ b/data/drbc-deck-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/shiny-flash-cards/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E910DEA-EAFB-C34E-8B0A-B3D8197BF6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74442C9F-9988-A44E-ACD8-7E60966E5C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="301">
   <si>
     <t>Question</t>
   </si>
@@ -425,9 +425,6 @@
     <t>Should internal groups write the plan or is there time to engage external stakeholders</t>
   </si>
   <si>
-    <t>Determining who decides the priorotes</t>
-  </si>
-  <si>
     <t>Water Characteristics</t>
   </si>
   <si>
@@ -936,6 +933,9 @@
   </si>
   <si>
     <t>DRWI</t>
+  </si>
+  <si>
+    <t>Determining who decides the priorites</t>
   </si>
 </sst>
 </file>
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9D4D1-F6A9-C940-A3C3-6AD155BF6F59}">
   <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="112.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2166,7 @@
         <v>84</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2177,7 +2177,7 @@
         <v>85</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
         <v>111</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2199,7 +2199,7 @@
         <v>112</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2210,7 +2210,7 @@
         <v>113</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2221,7 +2221,7 @@
         <v>114</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2232,7 +2232,7 @@
         <v>116</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
         <v>117</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>119</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2276,7 +2276,7 @@
         <v>120</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2287,7 +2287,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2298,7 +2298,7 @@
         <v>123</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2309,7 +2309,7 @@
         <v>124</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>126</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>128</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -2353,7 +2353,7 @@
         <v>129</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2361,1415 +2361,1418 @@
         <v>125</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="3">
         <v>0.05</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C111" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="C114" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="C119" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="C183" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="C188" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="C205" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="C208" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="C214" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B219" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="C220" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C222" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/data/drbc-deck-1.xlsx
+++ b/data/drbc-deck-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerbradley/Documents/shiny-flash-cards/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74442C9F-9988-A44E-ACD8-7E60966E5C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F3EC5-382D-5F48-9983-7F8E1CF1065C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{DFD306EA-B649-A841-BEF9-F74566FD3957}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="430">
   <si>
     <t>Question</t>
   </si>
@@ -936,6 +936,393 @@
   </si>
   <si>
     <t>Determining who decides the priorites</t>
+  </si>
+  <si>
+    <t>Theories of River Function</t>
+  </si>
+  <si>
+    <t>Proteus: Greek god of sea and river - changes shape to avoid answering questions</t>
+  </si>
+  <si>
+    <t>Closed Systems</t>
+  </si>
+  <si>
+    <t>Interactions driven by internal forces</t>
+  </si>
+  <si>
+    <t>Dynamics by interactions from initial conditions</t>
+  </si>
+  <si>
+    <t>Look for quilibria</t>
+  </si>
+  <si>
+    <t>Open Systems</t>
+  </si>
+  <si>
+    <t>Interactions strongly driven by inputs and outputs</t>
+  </si>
+  <si>
+    <t>Look for steady state</t>
+  </si>
+  <si>
+    <t>Are river systems open or closed systems</t>
+  </si>
+  <si>
+    <t>Open - They include exchanges between the atmosphere to and from the river, ground water to and from channels, drainage to the channel, and upstream/downstream interactions</t>
+  </si>
+  <si>
+    <t>Classic ecological theories</t>
+  </si>
+  <si>
+    <t>Habitat (filters) and competition</t>
+  </si>
+  <si>
+    <t>Trophic interactions</t>
+  </si>
+  <si>
+    <t>Biogeography</t>
+  </si>
+  <si>
+    <t>Link of habitat characteristics to assemblages</t>
+  </si>
+  <si>
+    <t>Competition within habitat groups</t>
+  </si>
+  <si>
+    <t>Trophic cascades</t>
+  </si>
+  <si>
+    <t>Bottom up proccesses</t>
+  </si>
+  <si>
+    <t>Keystone top predators, intermediate predators</t>
+  </si>
+  <si>
+    <t>Available species pool</t>
+  </si>
+  <si>
+    <t>At local scale, dispersal-based community approaches</t>
+  </si>
+  <si>
+    <t>Topographical-geological</t>
+  </si>
+  <si>
+    <t>Many aspects of theories discussed derived from topography and geography</t>
+  </si>
+  <si>
+    <t>Network (open system) - high number of tributary streams contributing to fewer larger streams</t>
+  </si>
+  <si>
+    <t>River continuum - typical changes from headwaters to large rivers</t>
+  </si>
+  <si>
+    <t>Riverine ecosystem synthesis (James Thorp) - rivers go through different patterns as move between different geological/topographical regions</t>
+  </si>
+  <si>
+    <t>Upstream-downstream (longitudinal) continuity</t>
+  </si>
+  <si>
+    <t>Migration of biota</t>
+  </si>
+  <si>
+    <t>Movement of nutrient</t>
+  </si>
+  <si>
+    <t>River continuum theory a version (e.g. headwater to river gradient from leaf-based to algal-based food webs)</t>
+  </si>
+  <si>
+    <t>Loss/disturbance with dams</t>
+  </si>
+  <si>
+    <t>Delaware notable for high connectivity in main stem; less in tributaries (some large dams, many small dams)</t>
+  </si>
+  <si>
+    <t>Lateral connectivity</t>
+  </si>
+  <si>
+    <t>Riparian zone effects</t>
+  </si>
+  <si>
+    <t>Channel-floodplain connectivity</t>
+  </si>
+  <si>
+    <t>leaf inputs</t>
+  </si>
+  <si>
+    <t>Terrestrial inverterbrate inputs</t>
+  </si>
+  <si>
+    <t>Terrestrial predators in some systems</t>
+  </si>
+  <si>
+    <t>Important in Delaware streams, with loss or protection of stream buffers</t>
+  </si>
+  <si>
+    <t>Mitigates flood flows</t>
+  </si>
+  <si>
+    <t>Flow plain ecosystems have biotic and chemical connection to channel</t>
+  </si>
+  <si>
+    <t>Loss with channelization, levees, stream incision</t>
+  </si>
+  <si>
+    <t>Delaware has some floadplain aquatic habitats and some urban streams</t>
+  </si>
+  <si>
+    <t>Things special about the Delaware River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range of habitats </t>
+  </si>
+  <si>
+    <t>Source fauna (biogeographical, trophic) - both orignal and current</t>
+  </si>
+  <si>
+    <t>Importance of diadromous species</t>
+  </si>
+  <si>
+    <t>Changes: Introductions, etc</t>
+  </si>
+  <si>
+    <t>Northern Basin Habitat</t>
+  </si>
+  <si>
+    <t>Coldwater, steep headwaters</t>
+  </si>
+  <si>
+    <t>Low-gradient streams with lakes and wetlands (e.g. on Poconos Plateau)</t>
+  </si>
+  <si>
+    <t>Ridge and Valley Habitat</t>
+  </si>
+  <si>
+    <t>Low gradient, often carbonate streams in valley</t>
+  </si>
+  <si>
+    <t>High productivity in carbonate streams</t>
+  </si>
+  <si>
+    <t>Steep streams draining valley</t>
+  </si>
+  <si>
+    <t>Moderate gradient, pool-riffle-run</t>
+  </si>
+  <si>
+    <t>Variable habitats, e.g., springs</t>
+  </si>
+  <si>
+    <t>Some tidal near mouth</t>
+  </si>
+  <si>
+    <t>Piedmont Habitat</t>
+  </si>
+  <si>
+    <t>Coastal Plain Habitat</t>
+  </si>
+  <si>
+    <t>Low gradient, high water table, wetlands important</t>
+  </si>
+  <si>
+    <t>Some acid, blackwater</t>
+  </si>
+  <si>
+    <t>Substrate typically sand and gravel</t>
+  </si>
+  <si>
+    <t>Few boulder, cobble riffles</t>
+  </si>
+  <si>
+    <t>Vegetation and snags important for biota</t>
+  </si>
+  <si>
+    <t>Many tidal near mouth</t>
+  </si>
+  <si>
+    <t>Common Habitat Characteristics</t>
+  </si>
+  <si>
+    <t>Each habitat has variability at different scales - Medium: different types, part of streams; Fine scale: habitats within reach;</t>
+  </si>
+  <si>
+    <t>Similar habitats in different ecoregions - Stream-wetland complexes in all, especially northern and Coastal Plain; Pool-riffle-run streams in all except rarer in Coastal Plain; With differnces in hydrology, temperature, etc</t>
+  </si>
+  <si>
+    <t>Similar human effects, though different intensities (e.g. agriculture, dams, urbanization)</t>
+  </si>
+  <si>
+    <t>Habitat-biota</t>
+  </si>
+  <si>
+    <t>e.g. Trait-based analyses</t>
+  </si>
+  <si>
+    <t>Adult morphology</t>
+  </si>
+  <si>
+    <t>Suitability for spawning</t>
+  </si>
+  <si>
+    <t>Suitability for larval and juvenile growth</t>
+  </si>
+  <si>
+    <t>Biota</t>
+  </si>
+  <si>
+    <t>Animal and plant life in a habitat</t>
+  </si>
+  <si>
+    <t>What is it and how did it get here?</t>
+  </si>
+  <si>
+    <t>Most groups have variety of aerial/terrestrial dispersal processes, so access to large part of continental biota</t>
+  </si>
+  <si>
+    <t>Fish &amp; Amphibian Biota</t>
+  </si>
+  <si>
+    <t>Loss of much fauna in glacial, preiglacial environments</t>
+  </si>
+  <si>
+    <t>Fauna derived from ocean and recolonization</t>
+  </si>
+  <si>
+    <t>Current fauna increased by introductions</t>
+  </si>
+  <si>
+    <t>In Ohio drainage, genetic structure of salamander aligned with historic, not current, river network</t>
+  </si>
+  <si>
+    <t>A Caution about "Original" Condition Theories</t>
+  </si>
+  <si>
+    <t>Most approach it as "original" condition, then note changes, mostly post-colonial, post-industrial losses</t>
+  </si>
+  <si>
+    <t>This is an edenic and/or wilderness bias: an ample creation degraded by man</t>
+  </si>
+  <si>
+    <t>Things this may overemphasize: some idea of what used to be</t>
+  </si>
+  <si>
+    <t>Things this may underemphasize: Most of what we see, know and interact with; Native American impacts; Variability of the past; Positive response of some species to human change;</t>
+  </si>
+  <si>
+    <t>Freshwater Fish Species Richness</t>
+  </si>
+  <si>
+    <t>Highest in central drainages (e.g. Tennessee)</t>
+  </si>
+  <si>
+    <t>Low in some coastal, northern and peninsular drainages (50 in Delaware)</t>
+  </si>
+  <si>
+    <t>Explained by changes (glaciation, drainage network evolution) at various time scales</t>
+  </si>
+  <si>
+    <t>Migration Mechanisms</t>
+  </si>
+  <si>
+    <t>For all mechanisms, need to worry about chronology</t>
+  </si>
+  <si>
+    <t>Meltwater glacial lakes</t>
+  </si>
+  <si>
+    <t>Formed at edges of glaciers</t>
+  </si>
+  <si>
+    <t>Outlets determined by topography</t>
+  </si>
+  <si>
+    <t>Outlets change over time (erosion, water level changes), with shift in major outlet drainage</t>
+  </si>
+  <si>
+    <t>Faunas (lake and lake tributaries) trade as outlets shift</t>
+  </si>
+  <si>
+    <t>Colonization along coast during lower sea stage</t>
+  </si>
+  <si>
+    <t>Colonization from ocean</t>
+  </si>
+  <si>
+    <t>Dispersal pathway mechanisms</t>
+  </si>
+  <si>
+    <t>Post glacial lakes, which change outlets (effects widespread, northern cold and cool water fish)</t>
+  </si>
+  <si>
+    <t>Intermittent draingage connections (effects widespread northern col and cool water fish, variety of small stream fishes, and part of southeastern fauna)</t>
+  </si>
+  <si>
+    <t>Stream capture (effects widespread, northern cold and cool water fish, variety of small stream fishes, and part of southeastern fauna)</t>
+  </si>
+  <si>
+    <t>Colonization up Coastal Plain at low sea-stage (effects part of southeastern fauna)</t>
+  </si>
+  <si>
+    <t>From ocean (effects diadromous species)</t>
+  </si>
+  <si>
+    <t>Southeastern Fauna in the Delaware</t>
+  </si>
+  <si>
+    <t>Many prefer wetlands, vegetated streams</t>
+  </si>
+  <si>
+    <t>Primarily Coastal Plain (mainly pine barrens, but probably historically more widespread)</t>
+  </si>
+  <si>
+    <t>Some spread into similar habitats in other areas</t>
+  </si>
+  <si>
+    <t>Northern Fauna in the Delaware</t>
+  </si>
+  <si>
+    <t>Widespread (at least historically) through much of northen part of drainage</t>
+  </si>
+  <si>
+    <t>Local in springfed elsewhere</t>
+  </si>
+  <si>
+    <t>Brook Trout and Slimy Sculpin</t>
+  </si>
+  <si>
+    <t>Predominant in small, coldwater streams</t>
+  </si>
+  <si>
+    <t>Decreasing: land cover change and climate change</t>
+  </si>
+  <si>
+    <t>Coldwater macroinvertebrate fauna</t>
+  </si>
+  <si>
+    <t>Relicts: Some extirpated and some local in NY</t>
+  </si>
+  <si>
+    <t>Temperature Tolerance</t>
+  </si>
+  <si>
+    <t>Asymmetry in warm and cold water</t>
+  </si>
+  <si>
+    <t>Coldwater Fauna</t>
+  </si>
+  <si>
+    <t>Able to maintain positive growth, reproduction at low temperatures</t>
+  </si>
+  <si>
+    <t>Mortality at high temperatures (direct mortality, Lower DO at high temperatures - too low for cold water fauna, higher energetic requirements at high temperatures and fauna can't keep up)</t>
+  </si>
+  <si>
+    <t>Warmwater fauna</t>
+  </si>
+  <si>
+    <t>Able to survive low temperatures (do so every winter, with aclimation) but can't maintain positive growth</t>
+  </si>
+  <si>
+    <t>Physiologically able to keep up with temperature demands</t>
   </si>
 </sst>
 </file>
@@ -1298,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC9D4D1-F6A9-C940-A3C3-6AD155BF6F59}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="112.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3775,6 +4162,830 @@
         <v>299</v>
       </c>
     </row>
+    <row r="225" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
